--- a/dataFiles/ElderCareProgram/ElderCare-CommunityEvents.xlsx
+++ b/dataFiles/ElderCareProgram/ElderCare-CommunityEvents.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="A1:XFD1048576"/>
+      <selection activeCell="H6" activeCellId="1" sqref="G9 A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
